--- a/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
+++ b/REGULAR/OJT/VERGARA, CATHERENE R..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>PARENTAL 5/25,26/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2656,7 +2662,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3034,12 +3040,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3208,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.75</v>
+        <v>50.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3212,7 +3218,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.75</v>
+        <v>49.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4648,15 +4654,17 @@
       <c r="B78" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39">
         <v>1</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4670,13 +4678,15 @@
         <v>45200</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4688,13 +4698,15 @@
         <v>45231</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4705,9 +4717,13 @@
       <c r="A81" s="40">
         <v>45261</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>7</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4720,10 +4736,10 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -4732,14 +4748,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>3</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>45323</v>
+      <c r="A83" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4757,7 +4775,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4775,7 +4793,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4793,7 +4811,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4810,7 +4828,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45383</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4826,7 +4846,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45413</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5674,20 +5696,52 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="41"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="43"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="15"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
